--- a/ProjectTL/stoimo_Braslav.xlsx
+++ b/ProjectTL/stoimo_Braslav.xlsx
@@ -289,9 +289,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -304,6 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,15 +598,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -762,7 +760,7 @@
         <v>480.31</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1023,16 +1021,16 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
+        <v>1636.49</v>
+      </c>
+      <c r="F21" s="3">
         <v>28560</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1636.49</v>
       </c>
       <c r="G21" s="3">
         <v>30196.49</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1202,8 +1200,7 @@
         <v>20.21</v>
       </c>
       <c r="G30" s="3">
-        <f>SUM(G3:G29)</f>
-        <v>38519.69</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1213,26 +1210,29 @@
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9">
+      <c r="E31" s="14">
+        <f>SUM(E3:E30)</f>
+        <v>1938.9600000000003</v>
+      </c>
+      <c r="F31" s="14">
         <f>SUM(F3:F30)</f>
-        <v>7013.3399999999992</v>
-      </c>
-      <c r="G31" s="9">
+        <v>33936.85</v>
+      </c>
+      <c r="G31" s="14">
         <f>SUM(G3:G30)</f>
-        <v>77039.38</v>
+        <v>38541.060000000005</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -1383,7 +1383,7 @@
         <v>480.31</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>7</v>
       </c>
@@ -1644,16 +1644,16 @@
         <v>1</v>
       </c>
       <c r="E57" s="3">
+        <v>1636.49</v>
+      </c>
+      <c r="F57" s="3">
         <v>28560</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1636.49</v>
       </c>
       <c r="G57" s="3">
         <v>30196.49</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>20</v>
       </c>
@@ -1823,8 +1823,7 @@
         <v>20.21</v>
       </c>
       <c r="G66" s="3">
-        <f>SUM(G39:G65)</f>
-        <v>38519.69</v>
+        <v>21.37</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,27 +1835,27 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6">
         <f>SUM(E39:E66)</f>
-        <v>28862.47</v>
+        <v>1938.9600000000003</v>
       </c>
       <c r="F67" s="6">
         <f>SUM(F39:F66)</f>
-        <v>7013.3399999999992</v>
+        <v>33936.85</v>
       </c>
       <c r="G67" s="6">
         <f>SUM(G39:G66)</f>
-        <v>77039.38</v>
+        <v>38541.060000000005</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
       <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2398,29 +2397,29 @@
       </c>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <f>SUM(E73:E97)</f>
         <v>350.25000000000011</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <f>SUM(F73:F97)</f>
         <v>14425.449999999999</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="10">
         <f>SUM(G73:G97)</f>
         <v>14990.669999999998</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10" t="s">
+      <c r="A100" s="9"/>
+      <c r="B100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
     </row>
     <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -2446,65 +2445,65 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="14">
-        <v>1</v>
-      </c>
-      <c r="B102" s="12" t="s">
+      <c r="A102" s="13">
+        <v>1</v>
+      </c>
+      <c r="B102" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C102" s="14">
-        <v>1</v>
-      </c>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14">
+      <c r="C102" s="13">
+        <v>1</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13">
         <v>9.4</v>
       </c>
-      <c r="F102" s="14">
+      <c r="F102" s="13">
         <v>470</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="13">
         <v>479.4</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="14">
+      <c r="A103" s="13">
         <v>2</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="14">
-        <v>1</v>
-      </c>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14">
+      <c r="C103" s="13">
+        <v>1</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13">
         <v>24.1</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="13">
         <v>1205</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="13">
         <v>1229.0999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
+      <c r="A104" s="13">
         <v>3</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C104" s="14">
-        <v>1</v>
-      </c>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14">
+      <c r="C104" s="13">
+        <v>1</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13">
         <v>9.4</v>
       </c>
-      <c r="F104" s="14">
+      <c r="F104" s="13">
         <v>470</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <v>479.4</v>
       </c>
     </row>
@@ -2551,42 +2550,42 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="14">
+      <c r="A107" s="13">
         <v>7</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C107" s="14">
-        <v>1</v>
-      </c>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14">
+      <c r="C107" s="13">
+        <v>1</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13">
         <v>5.45</v>
       </c>
-      <c r="F107" s="14">
+      <c r="F107" s="13">
         <v>95.04</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>100.49</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="14">
+      <c r="A108" s="13">
         <v>8</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="13">
         <v>2</v>
       </c>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14">
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13">
         <v>20</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="13">
         <v>40</v>
       </c>
     </row>
@@ -2633,65 +2632,65 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="12">
+      <c r="A111" s="11">
         <v>11</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C111" s="12">
-        <v>1</v>
-      </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="12">
+      <c r="C111" s="11">
+        <v>1</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="11">
         <v>1636.49</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="11">
         <v>28560</v>
       </c>
-      <c r="G111" s="12">
+      <c r="G111" s="11">
         <v>30196.49</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="12">
+      <c r="A112" s="11">
         <v>12</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C112" s="12">
-        <v>1</v>
-      </c>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12">
+      <c r="C112" s="11">
+        <v>1</v>
+      </c>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11">
         <v>4.66</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="11">
         <v>81.28</v>
       </c>
-      <c r="G112" s="12">
+      <c r="G112" s="11">
         <v>85.94</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="12">
+      <c r="A113" s="11">
         <v>13</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C113" s="12">
-        <v>1</v>
-      </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12">
+      <c r="C113" s="11">
+        <v>1</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11">
         <v>20</v>
       </c>
-      <c r="F113" s="12">
+      <c r="F113" s="11">
         <v>910</v>
       </c>
-      <c r="G113" s="12">
+      <c r="G113" s="11">
         <v>930</v>
       </c>
     </row>
@@ -3026,29 +3025,29 @@
       </c>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <f>SUM(E102:E129)</f>
         <v>2011.4000000000003</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F130" s="10">
         <f>SUM(F102:F129)</f>
         <v>43976.729999999989</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="10">
         <f>SUM(G102:G129)</f>
         <v>46203.099999999991</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10" t="s">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
@@ -3654,15 +3653,15 @@
       </c>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
-      <c r="E167" s="11">
+      <c r="E167" s="10">
         <f>SUM(E139:E166)</f>
         <v>2011.4000000000003</v>
       </c>
-      <c r="F167" s="11">
+      <c r="F167" s="10">
         <f>SUM(F139:F166)</f>
         <v>43976.729999999989</v>
       </c>
-      <c r="G167" s="11">
+      <c r="G167" s="10">
         <f>SUM(G139:G166)</f>
         <v>46203.099999999991</v>
       </c>

--- a/ProjectTL/stoimo_Braslav.xlsx
+++ b/ProjectTL/stoimo_Braslav.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2047,7 @@
         <v>10521.3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>10</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>452.66</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>11</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>108.12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
         <v>28</v>
@@ -2099,8 +2099,12 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f>SUM(G84:G97)</f>
+        <v>764.19999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>12</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>36.01</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>13</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>11.32</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="3" t="s">
         <v>46</v>
@@ -2159,7 +2163,7 @@
         <v>36.56</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>14</v>
       </c>
@@ -2180,7 +2184,7 @@
         <v>12.87</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>15</v>
       </c>
@@ -2201,7 +2205,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>16</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>57.66</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>17</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>18</v>
       </c>
@@ -2264,7 +2268,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>19</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>8.68</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>20</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>21</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>22</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>23</v>
       </c>
